--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.26505991979572</v>
+        <v>5.287928333333333</v>
       </c>
       <c r="N2">
-        <v>4.26505991979572</v>
+        <v>15.863785</v>
       </c>
       <c r="O2">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568145</v>
       </c>
       <c r="P2">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568147</v>
       </c>
       <c r="Q2">
-        <v>213.2922076417383</v>
+        <v>272.8125600170055</v>
       </c>
       <c r="R2">
-        <v>213.2922076417383</v>
+        <v>2455.31304015305</v>
       </c>
       <c r="S2">
-        <v>0.02106945331066708</v>
+        <v>0.02270554995373049</v>
       </c>
       <c r="T2">
-        <v>0.02106945331066708</v>
+        <v>0.0227055499537305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.9567179572543</v>
+        <v>39.18893833333333</v>
       </c>
       <c r="N3">
-        <v>38.9567179572543</v>
+        <v>117.566815</v>
       </c>
       <c r="O3">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="P3">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="Q3">
-        <v>1948.194053971766</v>
+        <v>2021.819116509439</v>
       </c>
       <c r="R3">
-        <v>1948.194053971766</v>
+        <v>18196.37204858494</v>
       </c>
       <c r="S3">
-        <v>0.1924467101452839</v>
+        <v>0.1682712663392432</v>
       </c>
       <c r="T3">
-        <v>0.1924467101452839</v>
+        <v>0.1682712663392432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.74492897148938</v>
+        <v>6.067472</v>
       </c>
       <c r="N4">
-        <v>5.74492897148938</v>
+        <v>18.202416</v>
       </c>
       <c r="O4">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519777</v>
       </c>
       <c r="P4">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519778</v>
       </c>
       <c r="Q4">
-        <v>287.2992656883096</v>
+        <v>313.0304468608533</v>
       </c>
       <c r="R4">
-        <v>287.2992656883096</v>
+        <v>2817.274021747679</v>
       </c>
       <c r="S4">
-        <v>0.0283800263100856</v>
+        <v>0.02605279041329564</v>
       </c>
       <c r="T4">
-        <v>0.0283800263100856</v>
+        <v>0.02605279041329565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.94717609672073</v>
+        <v>10.968127</v>
       </c>
       <c r="N5">
-        <v>7.94717609672073</v>
+        <v>32.904381</v>
       </c>
       <c r="O5">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594097</v>
       </c>
       <c r="P5">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594098</v>
       </c>
       <c r="Q5">
-        <v>397.431868734075</v>
+        <v>565.8629650102366</v>
       </c>
       <c r="R5">
-        <v>397.431868734075</v>
+        <v>5092.76668509213</v>
       </c>
       <c r="S5">
-        <v>0.03925915669891143</v>
+        <v>0.04709544831148937</v>
       </c>
       <c r="T5">
-        <v>0.03925915669891143</v>
+        <v>0.04709544831148939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.26505991979572</v>
+        <v>5.287928333333333</v>
       </c>
       <c r="N6">
-        <v>4.26505991979572</v>
+        <v>15.863785</v>
       </c>
       <c r="O6">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568145</v>
       </c>
       <c r="P6">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568147</v>
       </c>
       <c r="Q6">
-        <v>82.11719902543689</v>
+        <v>102.1688741440111</v>
       </c>
       <c r="R6">
-        <v>82.11719902543689</v>
+        <v>919.5198672961002</v>
       </c>
       <c r="S6">
-        <v>0.008111709799428367</v>
+        <v>0.00850327593219552</v>
       </c>
       <c r="T6">
-        <v>0.008111709799428367</v>
+        <v>0.008503275932195522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.9567179572543</v>
+        <v>39.18893833333333</v>
       </c>
       <c r="N7">
-        <v>38.9567179572543</v>
+        <v>117.566815</v>
       </c>
       <c r="O7">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="P7">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="Q7">
-        <v>750.0519622305524</v>
+        <v>757.175486508878</v>
       </c>
       <c r="R7">
-        <v>750.0519622305524</v>
+        <v>6814.579378579901</v>
       </c>
       <c r="S7">
-        <v>0.07409171189851937</v>
+        <v>0.06301794107865073</v>
       </c>
       <c r="T7">
-        <v>0.07409171189851937</v>
+        <v>0.06301794107865073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.74492897148938</v>
+        <v>6.067472</v>
       </c>
       <c r="N8">
-        <v>5.74492897148938</v>
+        <v>18.202416</v>
       </c>
       <c r="O8">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519777</v>
       </c>
       <c r="P8">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519778</v>
       </c>
       <c r="Q8">
-        <v>110.6098119628264</v>
+        <v>117.2305568577067</v>
       </c>
       <c r="R8">
-        <v>110.6098119628264</v>
+        <v>1055.07501171936</v>
       </c>
       <c r="S8">
-        <v>0.0109262700903115</v>
+        <v>0.00975682448297242</v>
       </c>
       <c r="T8">
-        <v>0.0109262700903115</v>
+        <v>0.009756824482972421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.94717609672073</v>
+        <v>10.968127</v>
       </c>
       <c r="N9">
-        <v>7.94717609672073</v>
+        <v>32.904381</v>
       </c>
       <c r="O9">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594097</v>
       </c>
       <c r="P9">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594098</v>
       </c>
       <c r="Q9">
-        <v>153.0107087583116</v>
+        <v>211.9168635464734</v>
       </c>
       <c r="R9">
-        <v>153.0107087583116</v>
+        <v>1907.25177191826</v>
       </c>
       <c r="S9">
-        <v>0.01511471994152899</v>
+        <v>0.01763734386346585</v>
       </c>
       <c r="T9">
-        <v>0.01511471994152899</v>
+        <v>0.01763734386346585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.26505991979572</v>
+        <v>5.287928333333333</v>
       </c>
       <c r="N10">
-        <v>4.26505991979572</v>
+        <v>15.863785</v>
       </c>
       <c r="O10">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568145</v>
       </c>
       <c r="P10">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568147</v>
       </c>
       <c r="Q10">
-        <v>417.5663793105762</v>
+        <v>594.2175538985077</v>
       </c>
       <c r="R10">
-        <v>417.5663793105762</v>
+        <v>5347.957985086569</v>
       </c>
       <c r="S10">
-        <v>0.04124808604244039</v>
+        <v>0.04945533428734034</v>
       </c>
       <c r="T10">
-        <v>0.04124808604244039</v>
+        <v>0.04945533428734036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.9567179572543</v>
+        <v>39.18893833333333</v>
       </c>
       <c r="N11">
-        <v>38.9567179572543</v>
+        <v>117.566815</v>
       </c>
       <c r="O11">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="P11">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="Q11">
-        <v>3814.018084888502</v>
+        <v>4403.757692690514</v>
       </c>
       <c r="R11">
-        <v>3814.018084888502</v>
+        <v>39633.81923421462</v>
       </c>
       <c r="S11">
-        <v>0.376756736001231</v>
+        <v>0.3665144312610704</v>
       </c>
       <c r="T11">
-        <v>0.376756736001231</v>
+        <v>0.3665144312610705</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.74492897148938</v>
+        <v>6.067472</v>
       </c>
       <c r="N12">
-        <v>5.74492897148938</v>
+        <v>18.202416</v>
       </c>
       <c r="O12">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519777</v>
       </c>
       <c r="P12">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519778</v>
       </c>
       <c r="Q12">
-        <v>562.4514626130153</v>
+        <v>681.8167991159145</v>
       </c>
       <c r="R12">
-        <v>562.4514626130153</v>
+        <v>6136.351192043231</v>
       </c>
       <c r="S12">
-        <v>0.05556013959472164</v>
+        <v>0.05674601415218578</v>
       </c>
       <c r="T12">
-        <v>0.05556013959472164</v>
+        <v>0.0567460141521858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.94717609672073</v>
+        <v>10.968127</v>
       </c>
       <c r="N13">
-        <v>7.94717609672073</v>
+        <v>32.904381</v>
       </c>
       <c r="O13">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594097</v>
       </c>
       <c r="P13">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594098</v>
       </c>
       <c r="Q13">
-        <v>778.0602408535856</v>
+        <v>1232.515493015351</v>
       </c>
       <c r="R13">
-        <v>778.0602408535856</v>
+        <v>11092.63943713816</v>
       </c>
       <c r="S13">
-        <v>0.07685842862617105</v>
+        <v>0.1025793757210533</v>
       </c>
       <c r="T13">
-        <v>0.07685842862617105</v>
+        <v>0.1025793757210534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.26505991979572</v>
+        <v>5.287928333333333</v>
       </c>
       <c r="N14">
-        <v>4.26505991979572</v>
+        <v>15.863785</v>
       </c>
       <c r="O14">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568145</v>
       </c>
       <c r="P14">
-        <v>0.0749388321281446</v>
+        <v>0.08596514992568147</v>
       </c>
       <c r="Q14">
-        <v>45.65182087207847</v>
+        <v>63.69264730109168</v>
       </c>
       <c r="R14">
-        <v>45.65182087207847</v>
+        <v>573.2338257098251</v>
       </c>
       <c r="S14">
-        <v>0.004509582975608771</v>
+        <v>0.005300989752415096</v>
       </c>
       <c r="T14">
-        <v>0.004509582975608771</v>
+        <v>0.005300989752415098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.9567179572543</v>
+        <v>39.18893833333333</v>
       </c>
       <c r="N15">
-        <v>38.9567179572543</v>
+        <v>117.566815</v>
       </c>
       <c r="O15">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="P15">
-        <v>0.6844853301385698</v>
+        <v>0.637089375439711</v>
       </c>
       <c r="Q15">
-        <v>416.9800995512945</v>
+        <v>472.0274311652417</v>
       </c>
       <c r="R15">
-        <v>416.9800995512945</v>
+        <v>4248.246880487175</v>
       </c>
       <c r="S15">
-        <v>0.0411901720935355</v>
+        <v>0.03928573676074666</v>
       </c>
       <c r="T15">
-        <v>0.0411901720935355</v>
+        <v>0.03928573676074667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.74492897148938</v>
+        <v>6.067472</v>
       </c>
       <c r="N16">
-        <v>5.74492897148938</v>
+        <v>18.202416</v>
       </c>
       <c r="O16">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519777</v>
       </c>
       <c r="P16">
-        <v>0.1009407314031774</v>
+        <v>0.09863808797519778</v>
       </c>
       <c r="Q16">
-        <v>61.49186019919005</v>
+        <v>73.08218450488</v>
       </c>
       <c r="R16">
-        <v>61.49186019919005</v>
+        <v>657.73966054392</v>
       </c>
       <c r="S16">
-        <v>0.006074295408058643</v>
+        <v>0.006082458926743937</v>
       </c>
       <c r="T16">
-        <v>0.006074295408058643</v>
+        <v>0.00608245892674394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.94717609672073</v>
+        <v>10.968127</v>
       </c>
       <c r="N17">
-        <v>7.94717609672073</v>
+        <v>32.904381</v>
       </c>
       <c r="O17">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594097</v>
       </c>
       <c r="P17">
-        <v>0.1396351063301082</v>
+        <v>0.1783073866594098</v>
       </c>
       <c r="Q17">
-        <v>85.06400060699156</v>
+        <v>132.110157424205</v>
       </c>
       <c r="R17">
-        <v>85.06400060699156</v>
+        <v>1188.991416817845</v>
       </c>
       <c r="S17">
-        <v>0.00840280106349673</v>
+        <v>0.01099521876340117</v>
       </c>
       <c r="T17">
-        <v>0.00840280106349673</v>
+        <v>0.01099521876340117</v>
       </c>
     </row>
   </sheetData>
